--- a/biology/Botanique/Étienne_Toublanc/Étienne_Toublanc.xlsx
+++ b/biology/Botanique/Étienne_Toublanc/Étienne_Toublanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Toublanc</t>
+          <t>Étienne_Toublanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Étienne Toublanc, né le 8 décembre 1897 au Cellier et mort le  24 avril 1987 à Saint-Géréon, est un homme politique français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Toublanc</t>
+          <t>Étienne_Toublanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de commerçants, par ailleurs propriétaires d'un domaine viticole, Étienne Toublanc, après un passage dans un collège catholique d'Ancenis, où il obtient le brevet d'étude, échappe de peu à la Première Guerre mondiale, puisqu'il est appelé en 1919.
 À son retour à la vie civile, il gère le domaine familial et le développe jusqu'à en faire une grosse exploitation, spécialisée dans le muscadet.
